--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\#Public Folder\IT\xacminhtkic3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\#Public Folder\IT\Tool_getDataCertiport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3398253-8AF6-40B1-B228-6668B11827D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CDF81-D7F2-404D-BE02-928E67F66699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ho ten</t>
   </si>
@@ -42,30 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Tuấn Kiệt </t>
-  </si>
-  <si>
-    <t>Trần Nhật Hải</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao Huỳnh Minh Khang </t>
-  </si>
-  <si>
-    <t>Đặng Anh Khoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Mỹ Duyên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Mai Phương </t>
-  </si>
-  <si>
-    <t>Trần Ngọc Phương  Uyên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Nguyên Quỳnh Anh </t>
-  </si>
-  <si>
-    <t>Phạm Thị Thảo Minh</t>
   </si>
   <si>
     <t>30/5/2024</t>
@@ -145,15 +121,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -472,113 +445,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>41068</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>41020</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>41147</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>41257</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>41129</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>41066</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>41174</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40937</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>41184</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>41106</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
